--- a/REGULAR/TREASURY/DE OCAMPO ALMA.xlsx
+++ b/REGULAR/TREASURY/DE OCAMPO ALMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2625E15A-5370-4F2D-8AB8-28208F38407F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C0859D-1B7B-4244-B6A1-19C9D50BB38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -217,6 +209,12 @@
   </si>
   <si>
     <t>11/14- 12/3</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -909,7 +907,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1238,12 +1236,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A65" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
+      <pane ySplit="3576" topLeftCell="A72" activePane="bottomLeft"/>
+      <selection activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,7 +1400,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>51.5</v>
+        <v>54</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1412,7 +1410,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2728,7 +2726,9 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
+      <c r="A74" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -2744,40 +2744,62 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
+      <c r="A75" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H75" s="39"/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H75" s="39">
+        <v>1</v>
+      </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="49">
+        <v>44951</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
+      <c r="A76" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="39"/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H76" s="39">
+        <v>1</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="49">
+        <v>44980</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
@@ -2789,10 +2811,14 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="49">
+        <v>44979</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -2808,7 +2834,9 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -2824,7 +2852,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -2840,7 +2870,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -2856,7 +2888,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -2872,7 +2906,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -2888,7 +2924,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -2904,7 +2942,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -2920,7 +2960,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -2936,7 +2978,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45261</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -2952,7 +2996,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45292</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -2968,7 +3014,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45323</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -2984,7 +3032,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45352</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -3000,7 +3050,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45383</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -3016,7 +3068,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45413</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -3032,7 +3086,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45444</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3048,7 +3104,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45474</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3064,7 +3122,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45505</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3080,7 +3140,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45536</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3096,7 +3158,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45566</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3112,7 +3176,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45597</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3128,7 +3194,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45627</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3144,7 +3212,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45658</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3160,7 +3230,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45689</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3176,7 +3248,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45717</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3192,7 +3266,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45748</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3208,7 +3284,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45778</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3224,7 +3302,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45809</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3240,7 +3320,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45839</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3256,7 +3338,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45870</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3272,7 +3356,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45901</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3288,7 +3374,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45931</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3304,7 +3392,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45962</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3320,7 +3410,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45992</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3336,7 +3428,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>46023</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3352,7 +3446,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>46054</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3368,7 +3464,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>46082</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3384,7 +3482,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>46113</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3400,7 +3500,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>46143</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3416,7 +3518,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>46174</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3432,7 +3536,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>46204</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3448,7 +3554,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>46235</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3464,7 +3572,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>46266</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3480,7 +3590,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>46296</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3496,7 +3608,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>46327</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3512,7 +3626,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>46357</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -3528,7 +3644,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>46388</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -3544,7 +3662,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>46419</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -3560,7 +3680,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>46447</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -3576,7 +3698,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>46478</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -3592,7 +3716,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>46508</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -3608,7 +3734,9 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <v>46539</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -3624,20 +3752,58 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40">
+        <v>46569</v>
+      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="40">
+        <v>46631</v>
+      </c>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3653,7 +3819,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -3670,8 +3836,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: NANETTE B. SUSA
+                                              OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/REGULAR/TREASURY/DE OCAMPO ALMA.xlsx
+++ b/REGULAR/TREASURY/DE OCAMPO ALMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C0859D-1B7B-4244-B6A1-19C9D50BB38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F0FA39-1450-4FC8-978F-775ACF7DD23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1241,7 +1241,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,7 +1400,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>54</v>
+        <v>55.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1410,7 +1410,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>56</v>
+        <v>56.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2819,19 +2819,27 @@
       <c r="A78" s="40">
         <v>44986</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="B78" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="39"/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H78" s="39">
+        <v>1</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="49">
+        <v>45012</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">

--- a/REGULAR/TREASURY/DE OCAMPO ALMA.xlsx
+++ b/REGULAR/TREASURY/DE OCAMPO ALMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F0FA39-1450-4FC8-978F-775ACF7DD23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6141672B-ACC2-4CCD-B0F6-6F28389DBB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -907,7 +907,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1236,12 +1236,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,7 +1410,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>56.25</v>
+        <v>55.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2842,10 +2842,10 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B79" s="20"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
@@ -2854,14 +2854,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H79" s="39"/>
+      <c r="H79" s="39">
+        <v>1</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="49">
+        <v>44993</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2879,7 +2883,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2897,7 +2901,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2915,7 +2919,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2933,7 +2937,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2951,7 +2955,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2969,7 +2973,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2987,7 +2991,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3005,7 +3009,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3023,7 +3027,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3041,7 +3045,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3059,7 +3063,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3077,7 +3081,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3095,7 +3099,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3113,7 +3117,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3131,7 +3135,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3149,7 +3153,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3167,7 +3171,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3185,7 +3189,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3203,7 +3207,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3221,7 +3225,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3239,7 +3243,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3257,7 +3261,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3275,7 +3279,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3293,7 +3297,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3311,7 +3315,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3329,7 +3333,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3347,7 +3351,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3365,7 +3369,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3383,7 +3387,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3401,7 +3405,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3419,7 +3423,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3437,7 +3441,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3455,7 +3459,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3473,7 +3477,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3491,7 +3495,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3509,7 +3513,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3527,7 +3531,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3545,7 +3549,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3563,7 +3567,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3581,7 +3585,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3599,7 +3603,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3617,7 +3621,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3635,7 +3639,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3653,7 +3657,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3671,7 +3675,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3689,7 +3693,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3707,7 +3711,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3725,7 +3729,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3743,7 +3747,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3761,7 +3765,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3779,7 +3783,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3797,21 +3801,39 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="40">
         <v>46631</v>
       </c>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
